--- a/leitura_harmonicos_de_corrente.xlsx
+++ b/leitura_harmonicos_de_corrente.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25522"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2619587a4b17b7bd/Desktop/stremeliatPlotly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{A389E652-C3C8-422F-AADD-7E5774147311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B9C3862-C942-4BDE-B7AE-0F8F7CA89563}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{A389E652-C3C8-422F-AADD-7E5774147311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B27BE72-9AB3-4B44-ACD7-F8BAF994B2CB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{08A67754-779F-4B24-91CD-E35538C6EBC0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{08A67754-779F-4B24-91CD-E35538C6EBC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,8 +71,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,6 +95,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -98,18 +117,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -127,6 +158,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,15 +464,15 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
     <col min="3" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -445,13 +480,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -465,15 +500,15 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <f>G2*$J$3</f>
         <v>0</v>
       </c>
       <c r="C2" s="1">
         <f ca="1">RANDBETWEEN(-150,150) /100</f>
-        <v>-0.76</v>
-      </c>
-      <c r="G2" s="3">
+        <v>-0.54</v>
+      </c>
+      <c r="G2" s="2">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -488,15 +523,15 @@
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <f t="shared" ref="B3:B52" si="0">G3*$J$3</f>
         <v>1004.0874246776101</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <f>-PI()/6</f>
         <v>-0.52359877559829882</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -507,40 +542,40 @@
         <v>1004.0874246776101</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <f t="shared" ref="A4:A50" si="1">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45.183934110492451</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>20.081748493552201</v>
+      </c>
+      <c r="C4" s="5">
         <f t="shared" ref="C4:C52" ca="1" si="2">RANDBETWEEN(-150,150) /100</f>
-        <v>-0.86</v>
-      </c>
-      <c r="G4" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="G4" s="6">
         <f ca="1">RANDBETWEEN(0,50)/300/A4</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.156526940862335</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.53</v>
-      </c>
-      <c r="G5" s="3">
-        <f ca="1">RANDBETWEEN(0,50)/300/A5</f>
-        <v>1.1111111111111112E-2</v>
+      <c r="B5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>25.660011963983369</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" ref="G5:G9" ca="1" si="3">RANDBETWEEN(0,50)/300/A5</f>
+        <v>2.5555555555555554E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -548,33 +583,33 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>23.428706575810903</v>
+      <c r="B6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>35.97979938428103</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.92</v>
-      </c>
-      <c r="G6" s="3">
-        <f ca="1">RANDBETWEEN(0,50)/300/A6</f>
-        <v>2.3333333333333334E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5833333333333335E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="8">
         <f t="shared" si="0"/>
         <v>502.04371233880505</v>
       </c>
-      <c r="C7" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>-1.01</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="C7" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.83</v>
+      </c>
+      <c r="G7" s="8">
         <v>0.5</v>
       </c>
     </row>
@@ -583,17 +618,17 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>38.490017945975055</v>
+      <c r="B8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6939161645174012</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" ref="G5:G52" ca="1" si="3">RANDBETWEEN(0,50)/100/A8</f>
-        <v>3.8333333333333337E-2</v>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.6666666666666671E-3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -601,17 +636,17 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6064636400938017</v>
+      <c r="B9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4344106066823001</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.45</v>
-      </c>
-      <c r="G9" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="G9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.5714285714285719E-3</v>
+        <v>1.4285714285714286E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -619,17 +654,17 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.806202089317139</v>
+      <c r="B10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>23.847076336093242</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.9</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.375E-2</v>
+        <v>0.65</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" ref="G10:G52" ca="1" si="4">RANDBETWEEN(0,50)/100/A10</f>
+        <v>2.375E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -637,17 +672,17 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>27.891317352155834</v>
+      <c r="B11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>53.551329316139203</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.1299999999999999</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.7777777777777776E-2</v>
+        <v>-0.75</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.333333333333333E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -655,17 +690,17 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45.183934110492451</v>
+      <c r="B12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>30.122622740328303</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.4999999999999998E-2</v>
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.03</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -673,17 +708,17 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>27.384202491207546</v>
+      <c r="B13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.91280674970691822</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.64</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.7272727272727271E-2</v>
+        <v>-0.61</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.0909090909090909E-4</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -691,17 +726,17 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>20.081748493552201</v>
+      <c r="B14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>19.245008972987527</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.74</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.02</v>
+        <v>0.65</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9166666666666669E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -709,17 +744,17 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>19.309373551492502</v>
+      <c r="B15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.992248725313402</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.27</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.9230769230769232E-2</v>
+        <v>-1.4</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.6923076923076923E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -727,17 +762,17 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7376424267292006</v>
+      <c r="B16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>25.819390920281403</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.7142857142857143E-3</v>
+        <v>-0.26</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.5714285714285714E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -745,17 +780,17 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>32.130797589683525</v>
+      <c r="B17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.065398794841762</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.1</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.2000000000000001E-2</v>
+        <v>0.96</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -763,17 +798,17 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>12.551092808470127</v>
+      <c r="B18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.7653278425410379</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.54</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2500000000000001E-2</v>
+        <v>0.98</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.7499999999999999E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -781,17 +816,17 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>17.719189847251943</v>
+      <c r="B19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1812793231501297</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.93</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.7647058823529412E-2</v>
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1764705882352942E-3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -799,17 +834,17 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>25.102185616940254</v>
+      <c r="B20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>15.061311370164153</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.36</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.5000000000000001E-2</v>
+        <v>-0.16</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.5000000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -817,17 +852,17 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>12.15474250925528</v>
+      <c r="B21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5854011968593844</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2105263157894737E-2</v>
+        <v>0.38</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.5789473684210526E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -835,17 +870,17 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>22.089923342907422</v>
+      <c r="B22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5224808357268556</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.38</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.1999999999999999E-2</v>
+        <v>0.19</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -853,17 +888,17 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.9534217223525</v>
+      <c r="B23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>20.559885362446302</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.27</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1904761904761904E-2</v>
+        <v>0.84</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.0476190476190474E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -871,17 +906,17 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.692101245603773</v>
+      <c r="B24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>18.712538368991822</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.56999999999999995</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3636363636363636E-2</v>
+        <v>-0.98</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.8636363636363635E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -889,17 +924,17 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5483962478974567</v>
+      <c r="B25" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.589270494673556</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.37</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.5217391304347823E-3</v>
+        <v>-0.62</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.6521739130434782E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -907,17 +942,17 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.83673952056467515</v>
+      <c r="B26" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.0204371233880503</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.27</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.3333333333333339E-4</v>
+        <v>-1.43</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -925,17 +960,17 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.442509216647144</v>
+      <c r="B27" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.8359693371629699</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.04E-2</v>
+        <v>-0.22</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.8000000000000005E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -943,17 +978,17 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.061311370164153</v>
+      <c r="B28" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3171248261791</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.8</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.5000000000000001E-2</v>
+        <v>-1.06</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.3076923076923075E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -961,17 +996,17 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.4875369254483113</v>
+      <c r="B29" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>17.850443105379735</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="G29" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.4814814814814814E-3</v>
+        <v>0.47</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.7777777777777778E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -979,17 +1014,17 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.854324628517027</v>
+      <c r="B30" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>17.930132583528749</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.6785714285714286E-2</v>
+        <v>-1.5</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.7857142857142856E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -997,17 +1032,17 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.503244676698895</v>
+      <c r="B31" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7698963439382349</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3448275862068966E-2</v>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.7586206896551726E-3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1015,17 +1050,17 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.0081748493552203</v>
+      <c r="B32" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.3510455069363099</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2E-3</v>
+        <v>0.64</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.3333333333333331E-3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1033,17 +1068,17 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.899361785538732</v>
+      <c r="B33" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>15.871059293291255</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84</v>
-      </c>
-      <c r="G33" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.4838709677419355E-2</v>
+        <v>1.27</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.5806451612903224E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1051,17 +1086,17 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.6479917638115564</v>
+      <c r="B34" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.237315488258373</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.28</v>
-      </c>
-      <c r="G34" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.6249999999999998E-3</v>
+        <v>-0.36</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.21875E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1069,17 +1104,17 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.0853783313794549</v>
+      <c r="B35" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.257949913051991</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.02</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.0606060606060606E-3</v>
+        <v>1.45</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1212121212121211E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1087,17 +1122,17 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7923561081132453</v>
+      <c r="B36" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.5642750928384395</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93</v>
-      </c>
-      <c r="G36" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.7647058823529418E-3</v>
+        <v>0.46</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.5294117647058826E-3</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1105,17 +1140,17 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.44258545603752</v>
+      <c r="B37" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1802278827667223</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.19</v>
-      </c>
-      <c r="G37" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.4285714285714284E-3</v>
+        <v>0.43</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.1428571428571435E-3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1123,17 +1158,17 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.4830478997329841</v>
+      <c r="B38" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83673952056467504</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72</v>
-      </c>
-      <c r="G38" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.4444444444444445E-3</v>
+        <v>-0.99</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.3333333333333328E-4</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1141,17 +1176,17 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.5278747353537652</v>
+      <c r="B39" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.312249226418698</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="G39" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.5135135135135136E-3</v>
+        <v>0.46</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0270270270270271E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1159,17 +1194,17 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.305107779585999</v>
+      <c r="B40" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1708023937187688</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.07</v>
-      </c>
-      <c r="G40" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0263157894736842E-2</v>
+        <v>-1.33</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.1578947368421052E-3</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1177,17 +1212,17 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.8618747102985003</v>
+      <c r="B41" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.1193330243184008</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.72</v>
-      </c>
-      <c r="G41" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.8461538461538459E-3</v>
+        <v>-1.46</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.1025641025641026E-3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1195,17 +1230,17 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.0245245480656608</v>
+      <c r="B42" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.291896102945502</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.49</v>
-      </c>
-      <c r="G42" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.0000000000000001E-3</v>
+        <v>0.84</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0249999999999999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1213,17 +1248,17 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.5918805280502228</v>
+      <c r="B43" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.040874246776101</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.17</v>
-      </c>
-      <c r="G43" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.5609756097560973E-3</v>
+        <v>0.88</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.01</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1231,17 +1266,17 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.23906843444705003</v>
+      <c r="B44" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.236216419011351</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.380952380952381E-4</v>
+        <v>1.37</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.119047619047619E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1249,17 +1284,17 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.8680696273071817</v>
+      <c r="B45" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23350870341339772</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="G45" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.8604651162790699E-3</v>
+        <v>-1.4</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.3255813953488373E-4</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1267,17 +1302,17 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.5306556850820767</v>
+      <c r="B46" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.497277621629561</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.59</v>
-      </c>
-      <c r="G46" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.5000000000000006E-3</v>
+        <v>-1.31</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0454545454545454E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1285,17 +1320,17 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.0326993974208811</v>
+      <c r="B47" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.9170467033346474</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G47" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.0000000000000002E-3</v>
+        <v>-1.19</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.8888888888888888E-3</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1303,17 +1338,17 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="B48" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.913993746495761</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4</v>
-      </c>
-      <c r="G48" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-1.02</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0869565217391304E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1321,17 +1356,17 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.0590768231648067</v>
+      <c r="B49" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.681781113591597</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.33</v>
-      </c>
-      <c r="G49" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.0425531914893616E-3</v>
+        <v>-0.91</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0638297872340425E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1339,53 +1374,53 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.5306556850820758</v>
+      <c r="B50" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.158210325505582</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.69</v>
-      </c>
-      <c r="G50" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.4999999999999997E-3</v>
+        <v>0.75</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.1250000000000003E-3</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <f t="shared" ref="A51:A52" si="4">A50+1</f>
+        <f t="shared" ref="A51:A52" si="5">A50+1</f>
         <v>49</v>
       </c>
-      <c r="B51" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6310426448668718</v>
+      <c r="B51" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17</v>
-      </c>
-      <c r="G51" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.5918367346938763E-3</v>
+        <v>-0.09</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="B52" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="B52" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.8237070631301382</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.2</v>
-      </c>
-      <c r="G52" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.85</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.7999999999999996E-3</v>
       </c>
     </row>
   </sheetData>

--- a/leitura_harmonicos_de_corrente.xlsx
+++ b/leitura_harmonicos_de_corrente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://daxenergy-my.sharepoint.com/personal/aah_dax_energy/Documents/dax-filtros-main_dez_2022/dax-filtros-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{A389E652-C3C8-422F-AADD-7E5774147311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77F3D621-510C-4ED5-AB10-3405215F6DEA}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{A389E652-C3C8-422F-AADD-7E5774147311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{158A8F24-C5C6-42DC-B195-D51A0A445D05}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{08A67754-779F-4B24-91CD-E35538C6EBC0}"/>
   </bookViews>
@@ -38,13 +38,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Módulo [A]</t>
-  </si>
-  <si>
     <t>Ordem [h]</t>
   </si>
   <si>
     <t>Fase [Graus]</t>
+  </si>
+  <si>
+    <t>Modulo [A]</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B9" sqref="B9:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,13 +412,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -448,7 +448,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>58.571766439527259</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>0.34</v>
@@ -459,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>49.088718539794272</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>1.05</v>
@@ -470,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>17.57152993185818</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>-1.5</v>
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>502.04371233880505</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
         <v>1.19</v>
@@ -492,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>26.775664658069605</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
         <v>1.1100000000000001</v>
@@ -503,7 +503,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>19.6036116246581</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
         <v>-1.4</v>
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>58.990136199809591</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
         <v>0.46</v>
@@ -525,7 +525,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>50.204371233880508</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
         <v>-0.9</v>
@@ -536,7 +536,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>46.188021535170066</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
         <v>-1.0900000000000001</v>
@@ -547,7 +547,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>6.3896472479484281</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
         <v>0.18</v>
@@ -558,7 +558,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>12.551092808470125</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
         <v>1.45</v>
@@ -569,7 +569,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>10.040874246776101</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
         <v>-1.41</v>
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>34.425854560375207</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
         <v>-1.19</v>
@@ -591,7 +591,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>3.3469580822587006</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
         <v>-0.91</v>
@@ -602,7 +602,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>28.239958819057783</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
         <v>-0.08</v>
@@ -613,7 +613,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>8.8595949236259717</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
         <v>-7.0000000000000007E-2</v>
@@ -624,7 +624,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>27.333491005112716</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
         <v>-0.86</v>
@@ -635,7 +635,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>9.5124071811563056</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
         <v>-0.89</v>
@@ -646,7 +646,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>15.563355082502957</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
         <v>0.42</v>
@@ -657,7 +657,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>11.9534217223525</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>11.866487746189938</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>4.365597498598305</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
         <v>0.68</v>
@@ -690,7 +690,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>1.6734790411293503</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1">
         <v>-0.6</v>
@@ -701,7 +701,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>0.40163496987104408</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1">
         <v>0.98</v>
@@ -712,7 +712,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>2.7033122972089507</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1">
         <v>0.04</v>
@@ -723,7 +723,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>11.528411172224413</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1">
         <v>0.74</v>
@@ -734,7 +734,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>1.0758079550117252</v>
+        <v>0</v>
       </c>
       <c r="C30" s="1">
         <v>0.63</v>
@@ -745,7 +745,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>13.157007633706616</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
         <v>-0.73</v>
@@ -756,7 +756,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>10.040874246776101</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1">
         <v>-1.29</v>
@@ -767,7 +767,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>2.2672941847558938</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1">
         <v>-1.46</v>
@@ -778,7 +778,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>6.9031010446585697</v>
+        <v>0</v>
       </c>
       <c r="C34" s="1">
         <v>-1.3</v>
@@ -789,7 +789,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>10.040874246776101</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1">
         <v>-7.0000000000000007E-2</v>
@@ -800,7 +800,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>14.765991539376619</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1">
         <v>1.37</v>
@@ -811,7 +811,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>9.7539921254396411</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1">
         <v>-0.78</v>
@@ -822,7 +822,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>1.6734790411293501</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1">
         <v>0.51</v>
@@ -833,7 +833,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>4.3419996742815572</v>
+        <v>0</v>
       </c>
       <c r="C39" s="1">
         <v>0.79</v>
@@ -844,7 +844,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>10.040874246776101</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1">
         <v>0.19</v>
@@ -855,7 +855,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>3.8618747102985003</v>
+        <v>0</v>
       </c>
       <c r="C41" s="1">
         <v>0.33</v>
@@ -866,7 +866,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>3.0122622740328304</v>
+        <v>0</v>
       </c>
       <c r="C42" s="1">
         <v>-1.41</v>
@@ -877,7 +877,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>10.040874246776101</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
         <v>-0.97</v>
@@ -888,7 +888,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>0.47813686889410006</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1">
         <v>-1.39</v>
@@ -899,7 +899,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>11.441926467256486</v>
+        <v>0</v>
       </c>
       <c r="C45" s="1">
         <v>-1.32</v>
@@ -910,7 +910,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>8.2152607473622634</v>
+        <v>0</v>
       </c>
       <c r="C46" s="1">
         <v>1.23</v>
@@ -921,7 +921,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>3.5700886210759473</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1">
         <v>-1.4</v>
@@ -932,7 +932,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>6.3301163729675416</v>
+        <v>0</v>
       </c>
       <c r="C48" s="1">
         <v>1.39</v>
@@ -943,7 +943,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>8.3317892686014456</v>
+        <v>0</v>
       </c>
       <c r="C49" s="1">
         <v>0.14000000000000001</v>
@@ -954,7 +954,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>6.4847312843762319</v>
+        <v>0</v>
       </c>
       <c r="C50" s="1">
         <v>0.96</v>
@@ -965,7 +965,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>1.2294948057276858</v>
+        <v>0</v>
       </c>
       <c r="C51" s="1">
         <v>0.11</v>
@@ -976,7 +976,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>9.0367868220984917</v>
+        <v>0</v>
       </c>
       <c r="C52" s="1">
         <v>-0.62</v>
